--- a/biology/Médecine/1604_en_santé_et_médecine/1604_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1604_en_santé_et_médecine/1604_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1604_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1604_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1604 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1604_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1604_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16 décembre : un bureau de la santé est créé à Bordeaux, « chargé de connaître l’état sanitaire de la cité, d’assurer la police, de surveiller les dépenses de santé et de tenir à jour les listes des morts […], alors qu’une épidémie de peste s’abat sur la ville[1] ».
-« À Bruges, le Magistrat publie une ordonnance réglant minutieusement tout ce qui se d[oit] faire en temps d'épidémie[2] ».
-« Arrivée des premiers colons en Nouvelle-France, dont Louis Hébert, premier apothicaire[3] ».
-Une chaire de pharmacie est créée à Toulouse[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16 décembre : un bureau de la santé est créé à Bordeaux, « chargé de connaître l’état sanitaire de la cité, d’assurer la police, de surveiller les dépenses de santé et de tenir à jour les listes des morts […], alors qu’une épidémie de peste s’abat sur la ville ».
+« À Bruges, le Magistrat publie une ordonnance réglant minutieusement tout ce qui se d[oit] faire en temps d'épidémie ».
+« Arrivée des premiers colons en Nouvelle-France, dont Louis Hébert, premier apothicaire ».
+Une chaire de pharmacie est créée à Toulouse.
 Henri IV signe la première charte des eaux minérales, encadrant leur utilisation à des fins médicales.</t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1604_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1604_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Joseph du Chesne (c.1544-1609) publie son traité Ad veritatem hermeticae medicinae[5].
-Sous le titre de Novum lumen chymicum, l'alchimiste Michael Sendivogius publie un manuscrit de son maître, Alexandre Seton, dit le Cosmopolite[6].
-1600 ou 1604 : Girolamo Fabrizi d'Acquapendente (1533-1619) : De formato foetu (« Sur le fœtus formé »), traité d'embryologie[7],[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Joseph du Chesne (c.1544-1609) publie son traité Ad veritatem hermeticae medicinae.
+Sous le titre de Novum lumen chymicum, l'alchimiste Michael Sendivogius publie un manuscrit de son maître, Alexandre Seton, dit le Cosmopolite.
+1600 ou 1604 : Girolamo Fabrizi d'Acquapendente (1533-1619) : De formato foetu (« Sur le fœtus formé »), traité d'embryologie,.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1604_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1604_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16 mars : Jean Rudolphe Glauber (mort en 1670), pharmacien, chimiste et alchimiste allemand[9],[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>16 mars : Jean Rudolphe Glauber (mort en 1670), pharmacien, chimiste et alchimiste allemand,.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1604_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1604_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,13 +625,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>28 mars : Agustín Farfán (né en 1532), médecin, prêtre et missionnaire augustin espagnol, médecin de Philippe II, roi d'Espagne, et membre de l'université royale et pontificale du Mexique[11].
-5 juin : Thomas Muffet (né vers 1553), médecin et naturaliste anglais[12], auteur en 1588 de la  Nosomantica Hippocratea[13].
-Nicolas Barnaud (né en 1539), médecin et alchimiste français[14].
-William Clowes (né vers 1540), chirurgien anglais de la Royal Navy[15].
-Alexandre Seton, dit le Cosmopolite (né à une date inconnue), alchimiste écossais[6].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>28 mars : Agustín Farfán (né en 1532), médecin, prêtre et missionnaire augustin espagnol, médecin de Philippe II, roi d'Espagne, et membre de l'université royale et pontificale du Mexique.
+5 juin : Thomas Muffet (né vers 1553), médecin et naturaliste anglais, auteur en 1588 de la  Nosomantica Hippocratea.
+Nicolas Barnaud (né en 1539), médecin et alchimiste français.
+William Clowes (né vers 1540), chirurgien anglais de la Royal Navy.
+Alexandre Seton, dit le Cosmopolite (né à une date inconnue), alchimiste écossais.</t>
         </is>
       </c>
     </row>
